--- a/Course_2/ECONOMETRICS/Домашнее задание №2 ММР.xlsx
+++ b/Course_2/ECONOMETRICS/Домашнее задание №2 ММР.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivant\Desktop\proj\ECONOMETRICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngrineva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E7738D-2E1E-4102-B783-2FC3FA7B1565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CC4A45-F228-4AB2-90DA-5CBCD46C1A58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{3B3CD907-7DB2-4E3A-85B8-46F34E9E0485}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12600" xr2:uid="{3B3CD907-7DB2-4E3A-85B8-46F34E9E0485}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -401,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -460,6 +462,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -781,15 +786,15 @@
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +835,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -867,7 +872,7 @@
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
     </row>
-    <row r="3" spans="1:21" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
@@ -896,20 +901,20 @@
         <v>31365</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-    </row>
-    <row r="4" spans="1:21" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+    </row>
+    <row r="4" spans="1:21" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>17</v>
       </c>
@@ -951,7 +956,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
@@ -981,7 +986,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:21" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1016,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:21" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1041,7 +1046,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
@@ -1071,7 +1076,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:21" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1106,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
@@ -1131,7 +1136,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
@@ -1161,7 +1166,7 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:21" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -1191,7 +1196,7 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
@@ -1221,7 +1226,7 @@
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1256,7 @@
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
@@ -1281,7 +1286,7 @@
       </c>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
@@ -1311,7 +1316,7 @@
       </c>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>30</v>
       </c>
@@ -1341,7 +1346,7 @@
       </c>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>31</v>
       </c>
@@ -1371,7 +1376,7 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
@@ -1401,7 +1406,7 @@
       </c>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
@@ -1431,7 +1436,7 @@
       </c>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
@@ -1461,7 +1466,7 @@
       </c>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>35</v>
       </c>
@@ -1491,7 +1496,7 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>36</v>
       </c>
@@ -1521,7 +1526,7 @@
       </c>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +1556,7 @@
       </c>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>38</v>
       </c>
@@ -1581,7 +1586,7 @@
       </c>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>39</v>
       </c>
@@ -1611,7 +1616,7 @@
       </c>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>40</v>
       </c>
@@ -1641,7 +1646,7 @@
       </c>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="1:10" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>41</v>
       </c>
@@ -1671,7 +1676,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
@@ -1701,7 +1706,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>43</v>
       </c>
@@ -1731,7 +1736,7 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>44</v>
       </c>
@@ -1761,7 +1766,7 @@
       </c>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>45</v>
       </c>
@@ -1791,7 +1796,7 @@
       </c>
       <c r="J32" s="16"/>
     </row>
-    <row r="33" spans="1:10" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>46</v>
       </c>
@@ -1821,7 +1826,7 @@
       </c>
       <c r="J33" s="16"/>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>47</v>
       </c>
@@ -1851,7 +1856,7 @@
       </c>
       <c r="J34" s="16"/>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>48</v>
       </c>
@@ -1881,7 +1886,7 @@
       </c>
       <c r="J35" s="16"/>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>49</v>
       </c>
@@ -1911,7 +1916,7 @@
       </c>
       <c r="J36" s="16"/>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>50</v>
       </c>
@@ -1941,7 +1946,7 @@
       </c>
       <c r="J37" s="16"/>
     </row>
-    <row r="38" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>51</v>
       </c>
@@ -1971,7 +1976,7 @@
       </c>
       <c r="J38" s="16"/>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>52</v>
       </c>
@@ -2001,7 +2006,7 @@
       </c>
       <c r="J39" s="16"/>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>53</v>
       </c>
@@ -2031,7 +2036,7 @@
       </c>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>54</v>
       </c>
@@ -2061,7 +2066,7 @@
       </c>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>55</v>
       </c>
@@ -2091,7 +2096,7 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:10" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>56</v>
       </c>
@@ -2121,7 +2126,7 @@
       </c>
       <c r="J43" s="16"/>
     </row>
-    <row r="44" spans="1:10" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>57</v>
       </c>
@@ -2151,7 +2156,7 @@
       </c>
       <c r="J44" s="16"/>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>58</v>
       </c>
@@ -2181,7 +2186,7 @@
       </c>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>59</v>
       </c>
@@ -2211,7 +2216,7 @@
       </c>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:10" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
@@ -2241,7 +2246,7 @@
       </c>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>61</v>
       </c>
@@ -2271,7 +2276,7 @@
       </c>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:10" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>62</v>
       </c>
@@ -2301,7 +2306,7 @@
       </c>
       <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>63</v>
       </c>
@@ -2331,7 +2336,7 @@
       </c>
       <c r="J50" s="16"/>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>64</v>
       </c>
@@ -2361,7 +2366,7 @@
       </c>
       <c r="J51" s="16"/>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>65</v>
       </c>
@@ -2391,7 +2396,7 @@
       </c>
       <c r="J52" s="16"/>
     </row>
-    <row r="53" spans="1:10" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>66</v>
       </c>
@@ -2421,7 +2426,7 @@
       </c>
       <c r="J53" s="16"/>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>67</v>
       </c>
@@ -2451,7 +2456,7 @@
       </c>
       <c r="J54" s="16"/>
     </row>
-    <row r="55" spans="1:10" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>68</v>
       </c>
@@ -2481,7 +2486,7 @@
       </c>
       <c r="J55" s="16"/>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>69</v>
       </c>
@@ -2511,7 +2516,7 @@
       </c>
       <c r="J56" s="16"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
